--- a/app/templates/report/reservas.xlsx
+++ b/app/templates/report/reservas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387E615-5D50-4D4C-9896-504C794C8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D6084A-1219-4836-90C7-AA030919C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,9 +371,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>

--- a/app/templates/report/reservas.xlsx
+++ b/app/templates/report/reservas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D6084A-1219-4836-90C7-AA030919C658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25580CCB-A797-41C5-AE25-BABBD7A940C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -374,6 +374,9 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -774,7 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1116,31 +1121,31 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="18" t="s">
         <v>61</v>
       </c>
       <c r="Q4" s="13"/>
@@ -1191,7 +1196,7 @@
       <c r="BJ4" s="11"/>
       <c r="BK4" s="11"/>
       <c r="BL4" s="11"/>
-      <c r="BM4" s="11" t="s">
+      <c r="BM4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="BN4" s="11"/>

--- a/app/templates/report/reservas.xlsx
+++ b/app/templates/report/reservas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25580CCB-A797-41C5-AE25-BABBD7A940C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{25580CCB-A797-41C5-AE25-BABBD7A940C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{696B7AE7-B18E-412A-BAAD-8ACE7E2F98E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,16 +349,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -377,6 +371,15 @@
     <xf numFmtId="14" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -777,9 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -825,383 +826,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="6" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="5" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="6" t="s">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="5" t="s">
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="6" t="s">
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
     </row>
-    <row r="3" spans="1:68" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:68" s="19" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AF3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4" t="s">
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4" t="s">
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BA3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4" t="s">
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BP3" s="4"/>
+      <c r="BP3" s="18"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="17" t="s">
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="12"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:BP3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
